--- a/WAB3.xlsx
+++ b/WAB3.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anni\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Stand der Standardisierung von Schnittstellen (z.B. QIVICON, EEBus,…)</t>
   </si>
@@ -41,62 +36,74 @@
     <t>Quellen</t>
   </si>
   <si>
-    <t>Welche Kommunikationsstandards unterstützt Smart Home?
+    <t>Proprietäre Lösungen einzelner Hersteller</t>
+  </si>
+  <si>
+    <t>Sandra Brink</t>
+  </si>
+  <si>
+    <t>Aktuelle nationale und internationale Forschungsprojekte</t>
+  </si>
+  <si>
+    <t>Florian Graupeter</t>
+  </si>
+  <si>
+    <t>Überblick zu Übertragungstechniken (Wi-Fi, ZigBee, PLC,..)</t>
+  </si>
+  <si>
+    <t>Zusammenhang mit Smart Grid Technologie</t>
+  </si>
+  <si>
+    <t>Michael Hein, Annika Köstler</t>
+  </si>
+  <si>
+    <t>Sabrina Schuler</t>
+  </si>
+  <si>
+    <t>1. Organic Smart Home - Energiemanagement für Intelligente Gebäude (https://books.google.de/books?id=i-WQAwAAQBAJ&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;output=reader&amp;pg=GBS.PA12)
+2. Ein Fachtext von etz (http://www.etz.de/files/e00927zfe_abb.pdf)
+3. Digitalisierung und Innovation: Planung - Entstehung - Entwicklungsperspektiven (https://books.google.de/books?id=4rslBAAAQBAJ&amp;pg=PA208&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiMw4729vTLAhWDGw8KHdsXDh0Q6AEIOTAB#v=onepage&amp;q=zusammenhang%20smart%20grid%20smart%20home&amp;f=false)
+4. Smart Market: Vom Smart Grid zum intelligenten Energiemarkt (https://books.google.de/books?id=M_vFBAAAQBAJ&amp;pg=PA292&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiMw4729vTLAhWDGw8KHdsXDh0Q6AEIRDAD#v=onepage&amp;q=zusammenhang%20smart%20grid%20smart%20home&amp;f=false)
+5. Intelligente Energiesysteme der Zukunft: Die Entwicklung von Smart Metering (https://books.google.de/books?id=9gzBCQAAQBAJ&amp;pg=PA51&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiVlpr49fTLAhWBHQ8KHSLJA-MQ6AEIPjAC#v=onepage&amp;q=smart%20home&amp;f=false)</t>
+  </si>
+  <si>
+    <t>1. Telekom: https://www.smarthome.de
+2. Übersicht Anbieter: http://www.netzwelt.de/news/150411-smart-home-anbieter-deutschland-ueberblick.html
+3. Übersicht weitere Anbieter: http://www.computerwoche.de/a/die-besten-smart-home-loesungen-fuer-einsteiger,2550730 
+4. Vergleiche: http://smarthomewelt.de/smart-home-systeme-vergleich/</t>
+  </si>
+  <si>
+    <t>1. Smart Home: Energieeffizienz-Haushalt der Zukunft  (Artikel) – veröffentlich in „ELEKTRIE - Deutsche Elektrotechnik“
+2. Smart Home in Deutschland
+Untersuchung im Rahmen der wissenschaftlichen Begleitung zum Programm Next Generation Media (NGM) des Bundesministeriums für Wirtschaft und Technologie
+3. Smart homes : design, implementation and Issues (by Nagender Kumar)</t>
+  </si>
+  <si>
+    <t>1. Welche Kommunikationsstandards unterstützt Smart Home?
 http://www.tecchannel.de/pc_mobile/peripherie/2075974/was_sie_ueber_smart_home_wissen_muessen/index2.html
-Interoperabilität
+2. Interoperabilität
 https://www.vde.com/de/institut/news/vdeinfocus/documents/12_4%20-%20vdeinfocus_d.pdf
-Apple - HomeKit
+3. Apple - HomeKit
 http://www.housecontrollers.de/hausautomatisierung/apple-ios-8-kommt-mit-schnittstelle-fuer-die-heimautomatisierung/
-Telekom - open source - qivicom
+4. Telekom - open source - qivicom
 https://www.telekom.com/medien/produkte-fuer-privatkunden/246286</t>
   </si>
   <si>
-    <t>Proprietäre Lösungen einzelner Hersteller</t>
-  </si>
-  <si>
-    <t>Sandra Brink</t>
-  </si>
-  <si>
-    <t>Telekom: https://www.smarthome.de ; RWE ; Gira</t>
-  </si>
-  <si>
-    <t>Aktuelle nationale und internationale Forschungsprojekte</t>
-  </si>
-  <si>
-    <t>Florian Graupeter</t>
-  </si>
-  <si>
-    <t>Überblick zu Übertragungstechniken (Wi-Fi, ZigBee, PLC,..)</t>
-  </si>
-  <si>
-    <t>Zusammenhang mit Smart Grid Technologie</t>
-  </si>
-  <si>
-    <t>Michael Hein, Annika Köstler</t>
-  </si>
-  <si>
-    <t>Sabrina Schuler</t>
-  </si>
-  <si>
-    <t>Organic Smart Home - Energiemanagement für Intelligente Gebäude (https://books.google.de/books?id=i-WQAwAAQBAJ&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;output=reader&amp;pg=GBS.PA12)
-Ein Fachtext von etz (http://www.etz.de/files/e00927zfe_abb.pdf)
-und evt. noch Digitalisierung und Innovation: Planung - Entstehung - Entwicklungsperspektiven (https://books.google.de/books?id=4rslBAAAQBAJ&amp;pg=PA208&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiMw4729vTLAhWDGw8KHdsXDh0Q6AEIOTAB#v=onepage&amp;q=zusammenhang%20smart%20grid%20smart%20home&amp;f=false)
-Smart Market: Vom Smart Grid zum intelligenten Energiemarkt (https://books.google.de/books?id=M_vFBAAAQBAJ&amp;pg=PA292&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiMw4729vTLAhWDGw8KHdsXDh0Q6AEIRDAD#v=onepage&amp;q=zusammenhang%20smart%20grid%20smart%20home&amp;f=false)
-Intelligente Energiesysteme der Zukunft: Die Entwicklung von Smart Metering (https://books.google.de/books?id=9gzBCQAAQBAJ&amp;pg=PA51&amp;dq=zusammenhang+smart+grid+smart+home&amp;hl=de&amp;sa=X&amp;ved=0ahUKEwiVlpr49fTLAhWBHQ8KHSLJA-MQ6AEIPjAC#v=onepage&amp;q=smart%20home&amp;f=false)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wi-Fi: http://smarthomewelt.de/wlan-funksystem-smart-home-wifi/
-PLC: http://www.plc-smarthome.de/
-Smart Home-Übertragungstechniken: http://www.e-technik.org/aufsaetze_vortraege/aufsaetze/kommunikationstechnik_smart_grid_home_mobilfunktagung2012.pdf
-Übertragungstechniken: http://www.fh-bingen.de/fileadmin/user_upload/Lehrende/Klaas_Lothar/Skripte/DIUET.pdf
-</t>
+    <t>Internetquellen: 
+1. Wi-Fi: http://smarthomewelt.de/wlan-funksystem-smart-home-wifi/
+2. PLC: http://www.plc-smarthome.de/
+3. Smart Home-Übertragungstechniken: http://www.e-technik.org/aufsaetze_vortraege/aufsaetze/kommunikationstechnik_smart_grid_home_mobilfunktagung2012.pdf
+4. Übertragungstechniken: http://www.fh-bingen.de/fileadmin/user_upload/Lehrende/Klaas_Lothar/Skripte/DIUET.pdf
+Bücher:
+1. Informations- und Kommunikationselektronik / Herbert Bernstein
+2. Drahtlose ZigBee-Netzwerke : ein Kompendium / Markus Krauße. - Wiesbaden : Springer Vieweg, 2014</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,16 +161,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -227,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,28 +445,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="66.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.28515625" customWidth="1"/>
     <col min="3" max="3" width="109.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,7 +477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="138" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -479,53 +485,55 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="75">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="4" spans="1:3" ht="75">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="5" spans="1:3" ht="138" customHeight="1">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="210">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="210" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>